--- a/static/diabetes_data.xlsx
+++ b/static/diabetes_data.xlsx
@@ -8,13 +8,42 @@
   <sheets>
     <sheet name="diabetes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">diabetes!$A$1:$G$794</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Pregnancies</t>
   </si>
@@ -37,49 +66,40 @@
     <t>Glucose</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
-    <t>87</t>
+    <t>10</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>34</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
-    <t>30</t>
+    <t>88</t>
   </si>
   <si>
-    <t>6</t>
+    <t>22</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>60</t>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -393,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G781"/>
+  <dimension ref="A1:G794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="G776" sqref="G776"/>
+    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
+      <selection activeCell="A768" sqref="A768:G794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18073,7 +18093,7 @@
         <v>9</v>
       </c>
       <c r="D769" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E769" t="s">
         <v>11</v>
@@ -18084,224 +18104,506 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B770" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C770" t="s">
         <v>9</v>
       </c>
       <c r="D770" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E770" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F770" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="771" spans="1:7">
       <c r="A771" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B771" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C771" t="s">
         <v>9</v>
       </c>
       <c r="D771" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E771" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F771" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="772" spans="1:7">
       <c r="A772" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B772" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C772" t="s">
         <v>9</v>
       </c>
       <c r="D772" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E772" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F772" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="773" spans="1:7">
       <c r="A773" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B773" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C773" t="s">
         <v>9</v>
       </c>
       <c r="D773" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E773" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F773" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="774" spans="1:7">
       <c r="A774" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B774" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C774" t="s">
         <v>9</v>
       </c>
       <c r="D774" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E774" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F774" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="775" spans="1:7">
+      <c r="A775" t="s">
+        <v>7</v>
+      </c>
       <c r="B775" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C775" t="s">
         <v>9</v>
       </c>
       <c r="D775" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E775" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F775" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="776" spans="1:7">
+      <c r="A776" t="s">
+        <v>7</v>
+      </c>
       <c r="B776" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C776" t="s">
         <v>9</v>
       </c>
       <c r="D776" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E776" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F776" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="777" spans="1:7">
+      <c r="A777" t="s">
+        <v>7</v>
+      </c>
       <c r="B777" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C777" t="s">
         <v>9</v>
       </c>
       <c r="D777" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E777" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F777" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="778" spans="1:7">
+      <c r="A778" t="s">
+        <v>7</v>
+      </c>
       <c r="B778" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C778" t="s">
         <v>9</v>
       </c>
       <c r="D778" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E778" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F778" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="779" spans="1:7">
+      <c r="A779" t="s">
+        <v>7</v>
+      </c>
       <c r="B779" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C779" t="s">
         <v>9</v>
       </c>
       <c r="D779" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E779" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F779" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="780" spans="1:7">
+      <c r="A780" t="s">
+        <v>7</v>
+      </c>
       <c r="B780" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C780" t="s">
         <v>9</v>
       </c>
       <c r="D780" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E780" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F780" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="781" spans="1:7">
+      <c r="A781" t="s">
+        <v>7</v>
+      </c>
       <c r="B781" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C781" t="s">
         <v>9</v>
       </c>
       <c r="D781" t="s">
+        <v>10</v>
+      </c>
+      <c r="E781" t="s">
+        <v>11</v>
+      </c>
+      <c r="F781" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7">
+      <c r="A782" t="s">
+        <v>7</v>
+      </c>
+      <c r="B782" t="s">
+        <v>8</v>
+      </c>
+      <c r="C782" t="s">
         <v>9</v>
       </c>
-      <c r="E781" t="s">
+      <c r="D782" t="s">
+        <v>10</v>
+      </c>
+      <c r="E782" t="s">
+        <v>11</v>
+      </c>
+      <c r="F782" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7">
+      <c r="A783" t="s">
+        <v>7</v>
+      </c>
+      <c r="B783" t="s">
+        <v>8</v>
+      </c>
+      <c r="C783" t="s">
+        <v>9</v>
+      </c>
+      <c r="D783" t="s">
+        <v>10</v>
+      </c>
+      <c r="E783" t="s">
+        <v>11</v>
+      </c>
+      <c r="F783" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7">
+      <c r="A784" t="s">
+        <v>7</v>
+      </c>
+      <c r="B784" t="s">
+        <v>8</v>
+      </c>
+      <c r="C784" t="s">
+        <v>9</v>
+      </c>
+      <c r="D784" t="s">
+        <v>10</v>
+      </c>
+      <c r="E784" t="s">
+        <v>11</v>
+      </c>
+      <c r="F784" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7">
+      <c r="A785" t="s">
+        <v>7</v>
+      </c>
+      <c r="B785" t="s">
+        <v>8</v>
+      </c>
+      <c r="C785" t="s">
+        <v>9</v>
+      </c>
+      <c r="D785" t="s">
+        <v>10</v>
+      </c>
+      <c r="E785" t="s">
+        <v>11</v>
+      </c>
+      <c r="F785" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7">
+      <c r="A786" t="s">
+        <v>7</v>
+      </c>
+      <c r="B786" t="s">
+        <v>8</v>
+      </c>
+      <c r="C786" t="s">
+        <v>9</v>
+      </c>
+      <c r="D786" t="s">
+        <v>10</v>
+      </c>
+      <c r="E786" t="s">
+        <v>11</v>
+      </c>
+      <c r="F786" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7">
+      <c r="A787" t="s">
+        <v>7</v>
+      </c>
+      <c r="B787" t="s">
+        <v>8</v>
+      </c>
+      <c r="C787" t="s">
+        <v>9</v>
+      </c>
+      <c r="D787" t="s">
+        <v>10</v>
+      </c>
+      <c r="E787" t="s">
+        <v>11</v>
+      </c>
+      <c r="F787" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7">
+      <c r="A788" t="s">
+        <v>7</v>
+      </c>
+      <c r="B788" t="s">
+        <v>8</v>
+      </c>
+      <c r="C788" t="s">
+        <v>9</v>
+      </c>
+      <c r="D788" t="s">
+        <v>10</v>
+      </c>
+      <c r="E788" t="s">
+        <v>11</v>
+      </c>
+      <c r="F788" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7">
+      <c r="A789" t="s">
+        <v>9</v>
+      </c>
+      <c r="B789" t="s">
+        <v>13</v>
+      </c>
+      <c r="C789" t="s">
+        <v>9</v>
+      </c>
+      <c r="D789" t="s">
+        <v>9</v>
+      </c>
+      <c r="E789" t="s">
+        <v>14</v>
+      </c>
+      <c r="F789" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7">
+      <c r="A790" t="s">
+        <v>7</v>
+      </c>
+      <c r="B790" t="s">
         <v>16</v>
       </c>
-      <c r="F781" t="s">
+      <c r="C790" t="s">
+        <v>9</v>
+      </c>
+      <c r="D790" t="s">
+        <v>9</v>
+      </c>
+      <c r="E790" t="s">
+        <v>17</v>
+      </c>
+      <c r="F790" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7">
+      <c r="A791" t="s">
+        <v>7</v>
+      </c>
+      <c r="B791" t="s">
+        <v>16</v>
+      </c>
+      <c r="C791" t="s">
+        <v>9</v>
+      </c>
+      <c r="D791" t="s">
+        <v>9</v>
+      </c>
+      <c r="E791" t="s">
+        <v>17</v>
+      </c>
+      <c r="F791" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7">
+      <c r="A792" t="s">
+        <v>7</v>
+      </c>
+      <c r="B792" t="s">
+        <v>16</v>
+      </c>
+      <c r="C792" t="s">
+        <v>9</v>
+      </c>
+      <c r="D792" t="s">
+        <v>18</v>
+      </c>
+      <c r="E792" t="s">
+        <v>17</v>
+      </c>
+      <c r="F792" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7">
+      <c r="A793" t="s">
+        <v>7</v>
+      </c>
+      <c r="B793" t="s">
+        <v>16</v>
+      </c>
+      <c r="C793" t="s">
+        <v>9</v>
+      </c>
+      <c r="D793" t="s">
+        <v>18</v>
+      </c>
+      <c r="E793" t="s">
+        <v>17</v>
+      </c>
+      <c r="F793" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7">
+      <c r="A794" t="s">
+        <v>7</v>
+      </c>
+      <c r="B794" t="s">
+        <v>8</v>
+      </c>
+      <c r="C794" t="s">
+        <v>9</v>
+      </c>
+      <c r="D794" t="s">
+        <v>10</v>
+      </c>
+      <c r="E794" t="s">
         <v>11</v>
       </c>
+      <c r="F794" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G794"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>